--- a/Radkm_Planung_2019.xlsx
+++ b/Radkm_Planung_2019.xlsx
@@ -339,7 +339,10 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259</c:v>
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,11 +362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57907840"/>
-        <c:axId val="57909632"/>
+        <c:axId val="160805632"/>
+        <c:axId val="160807168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57907840"/>
+        <c:axId val="160805632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +376,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57909632"/>
+        <c:crossAx val="160807168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -381,7 +384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57909632"/>
+        <c:axId val="160807168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57907840"/>
+        <c:crossAx val="160805632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -494,22 +497,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,11 +618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61034880"/>
-        <c:axId val="61036416"/>
+        <c:axId val="160824704"/>
+        <c:axId val="162157696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61034880"/>
+        <c:axId val="160824704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61036416"/>
+        <c:crossAx val="162157696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61036416"/>
+        <c:axId val="162157696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -649,7 +652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61034880"/>
+        <c:crossAx val="160824704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -779,37 +782,37 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>417</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,11 +954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61076224"/>
-        <c:axId val="61077760"/>
+        <c:axId val="162187520"/>
+        <c:axId val="162193408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61076224"/>
+        <c:axId val="162187520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +968,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61077760"/>
+        <c:crossAx val="162193408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61077760"/>
+        <c:axId val="162193408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +987,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61076224"/>
+        <c:crossAx val="162187520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,19 +1102,19 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>417</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,11 +1220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61015552"/>
-        <c:axId val="61017088"/>
+        <c:axId val="162948224"/>
+        <c:axId val="162949760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61015552"/>
+        <c:axId val="162948224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61017088"/>
+        <c:crossAx val="162949760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61017088"/>
+        <c:axId val="162949760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1253,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61015552"/>
+        <c:crossAx val="162948224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,11 +1751,11 @@
         <v>400</v>
       </c>
       <c r="E4" s="1">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F14" si="1">SUM(F3)+E4</f>
-        <v>417</v>
+        <f>SUM(F3)+E4</f>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,9 +1769,12 @@
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
+      <c r="E5" s="1">
+        <v>212</v>
+      </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>417</v>
+        <f t="shared" ref="F4:F14" si="1">SUM(F4)+E5</f>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,7 +1790,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,7 +1806,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,7 +1822,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1838,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,7 +1854,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,7 +1870,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1886,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,7 +1902,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1918,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,7 +1931,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>417</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2019.xlsx
+++ b/Radkm_Planung_2019.xlsx
@@ -342,7 +342,10 @@
                   <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,11 +365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160805632"/>
-        <c:axId val="160807168"/>
+        <c:axId val="87601920"/>
+        <c:axId val="87603456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160805632"/>
+        <c:axId val="87601920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +379,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160807168"/>
+        <c:crossAx val="87603456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -384,7 +387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160807168"/>
+        <c:axId val="87603456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +398,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160805632"/>
+        <c:crossAx val="87601920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -497,22 +500,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,11 +621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160824704"/>
-        <c:axId val="162157696"/>
+        <c:axId val="87620992"/>
+        <c:axId val="89150592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160824704"/>
+        <c:axId val="87620992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162157696"/>
+        <c:crossAx val="89150592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162157696"/>
+        <c:axId val="89150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -652,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160824704"/>
+        <c:crossAx val="87620992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -785,34 +788,34 @@
                   <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>668</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,11 +957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162187520"/>
-        <c:axId val="162193408"/>
+        <c:axId val="89180416"/>
+        <c:axId val="89186304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162187520"/>
+        <c:axId val="89180416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +971,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162193408"/>
+        <c:crossAx val="89186304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -976,7 +979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162193408"/>
+        <c:axId val="89186304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +990,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162187520"/>
+        <c:crossAx val="89180416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,16 +1108,16 @@
                   <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>668</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>668</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,11 +1223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162948224"/>
-        <c:axId val="162949760"/>
+        <c:axId val="91579520"/>
+        <c:axId val="91581056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162948224"/>
+        <c:axId val="91579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162949760"/>
+        <c:crossAx val="91581056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1242,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162949760"/>
+        <c:axId val="91581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1256,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162948224"/>
+        <c:crossAx val="91579520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,7 +1700,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,11 +1773,11 @@
         <v>700</v>
       </c>
       <c r="E5" s="1">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F4:F14" si="1">SUM(F4)+E5</f>
-        <v>668</v>
+        <f t="shared" ref="F5:F14" si="1">SUM(F4)+E5</f>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,9 +1791,12 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
+      <c r="E6" s="1">
+        <v>70</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,7 +1812,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,7 +1828,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,7 +1844,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,7 +1860,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1876,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,7 +1892,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,7 +1908,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1924,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,7 +1937,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2019.xlsx
+++ b/Radkm_Planung_2019.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\Radkm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618CE1B-2D56-414C-9D23-183625FA181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Januar</t>
   </si>
@@ -68,11 +74,14 @@
   <si>
     <t>AkkumIst</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +147,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -267,7 +276,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -350,7 +359,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -408,7 +417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -424,7 +432,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -521,7 +529,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -605,7 +613,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -619,7 +627,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="87620992"/>
         <c:axId val="89150592"/>
@@ -662,7 +669,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -678,7 +684,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -821,7 +827,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -941,7 +947,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -955,7 +961,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="89180416"/>
         <c:axId val="89186304"/>
@@ -1000,7 +1005,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1016,7 +1020,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1123,7 +1127,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -1207,7 +1211,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -1221,7 +1225,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="91579520"/>
         <c:axId val="91581056"/>
@@ -1266,7 +1269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1298,7 +1300,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1330,7 +1338,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1360,7 +1374,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1390,7 +1410,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1411,9 +1437,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1451,7 +1477,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1523,7 +1549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1696,20 +1722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="3" max="4" width="11.44140625" style="2"/>
+    <col min="5" max="6" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1723,7 +1749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1768,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1787,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1806,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1825,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1841,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1857,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1873,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1889,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +1921,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +1937,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1953,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1948,26 +1974,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Radkm_Planung_2019.xlsx
+++ b/Radkm_Planung_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\Radkm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618CE1B-2D56-414C-9D23-183625FA181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B457E99F-0760-482B-BDD1-F60D21ED7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Januar</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>tes2</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1986,6 +1989,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
